--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlam/Documents/csce315/CSCE-315-Project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\csce315\CSCE-315-Project2-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Project 2 Group 4</t>
   </si>
@@ -183,12 +183,21 @@
   </si>
   <si>
     <t>connect server to GUI</t>
+  </si>
+  <si>
+    <t>allow random distribution of seeds</t>
+  </si>
+  <si>
+    <t>implement "pie rule"</t>
+  </si>
+  <si>
+    <t>client acknowledgment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -231,6 +240,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -499,27 +511,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.8125" customWidth="1"/>
+    <col min="2" max="2" width="16.1875" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B1" s="2"/>
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -536,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -544,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B5">
         <v>1.1000000000000001</v>
       </c>
@@ -554,8 +566,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B6">
         <v>1.2</v>
       </c>
@@ -565,8 +580,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B7">
         <v>1.3</v>
       </c>
@@ -576,8 +594,11 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B8">
         <v>1.4</v>
       </c>
@@ -587,8 +608,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B9">
         <v>1.5</v>
       </c>
@@ -598,8 +622,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>1.6</v>
       </c>
@@ -609,8 +636,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B11">
         <v>1.7</v>
       </c>
@@ -620,8 +650,11 @@
       <c r="D11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B12">
         <v>1.8</v>
       </c>
@@ -631,8 +664,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B13">
         <v>1.9</v>
       </c>
@@ -642,8 +678,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B14" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -653,8 +692,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B15">
         <v>1.1100000000000001</v>
       </c>
@@ -664,8 +706,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B16">
         <v>1.1200000000000001</v>
       </c>
@@ -675,8 +720,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B17">
         <v>1.1299999999999999</v>
       </c>
@@ -686,8 +734,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B18">
         <v>1.1399999999999999</v>
       </c>
@@ -698,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B19">
         <v>1.1499999999999999</v>
       </c>
@@ -709,327 +760,364 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B20">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B21">
+        <v>1.17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22">
+      <c r="B23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B24">
         <v>2.1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23">
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B25">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B26">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B27">
         <v>2.4</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26">
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B28">
         <v>2.5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B29">
         <v>2.6</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B30">
         <v>2.7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B31">
         <v>2.8</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30">
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="B32">
         <v>2.9</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="1">
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B33" s="1">
         <v>2.1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B34">
         <v>2.11</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B36">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B37">
         <v>3.1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>35</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36">
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B38">
         <v>3.2</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>41</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B39">
         <v>3.3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>39</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B40">
         <v>3.4</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B41">
         <v>3.5</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B42">
         <v>3.6</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41">
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B43">
         <v>3.7</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B44">
         <v>3.8</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>42</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B47">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>50</v>
       </c>
-      <c r="D45">
+      <c r="D47">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B48">
         <v>4.2</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>51</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47">
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B49">
         <v>4.3</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
         <v>44</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B50">
         <v>4.3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C50" t="s">
         <v>45</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B51">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>46</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B52">
         <v>4.5</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51">
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B53">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52">
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B54">
         <v>4.7</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>49</v>
       </c>
-      <c r="D52">
+      <c r="D54">
         <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
+      <c r="B55">
+        <v>4.8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
